--- a/catalogsList/05072021/unitType.xlsx
+++ b/catalogsList/05072021/unitType.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>006</t>
   </si>
@@ -45,9 +45,6 @@
     <t>м2</t>
   </si>
   <si>
-    <t>059</t>
-  </si>
-  <si>
     <t>Гектар</t>
   </si>
   <si>
@@ -87,7 +84,28 @@
     <t>Центнер</t>
   </si>
   <si>
-    <t>Тонна (1000 кг)</t>
+    <t>км</t>
+  </si>
+  <si>
+    <t>Километр</t>
+  </si>
+  <si>
+    <t>Штука</t>
+  </si>
+  <si>
+    <t>шт</t>
+  </si>
+  <si>
+    <t>Тонна</t>
+  </si>
+  <si>
+    <t>798</t>
+  </si>
+  <si>
+    <t>Тысяча штук</t>
+  </si>
+  <si>
+    <t>тыс. шт</t>
   </si>
 </sst>
 </file>
@@ -431,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -467,73 +485,107 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
+      <c r="A3">
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>59</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C5" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>796</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/catalogsList/05072021/unitType.xlsx
+++ b/catalogsList/05072021/unitType.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>006</t>
   </si>
@@ -106,24 +106,25 @@
   </si>
   <si>
     <t>тыс. шт</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>059</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -146,8 +147,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -457,13 +459,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
@@ -474,7 +476,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -485,8 +487,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>8</v>
+      <c r="A3" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -496,7 +498,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
@@ -507,8 +509,8 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>59</v>
+      <c r="A5" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -518,7 +520,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
@@ -529,7 +531,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B7" t="s">
@@ -540,7 +542,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B8" t="s">
@@ -551,7 +553,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B9" t="s">
@@ -562,7 +564,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>796</v>
       </c>
       <c r="B10" t="s">
@@ -573,7 +575,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B11" t="s">
